--- a/Shading Nets/my_graphs/impact_1.xlsx
+++ b/Shading Nets/my_graphs/impact_1.xlsx
@@ -519,70 +519,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>316.6762560512871</v>
+        <v>0.5893449140712619</v>
       </c>
       <c r="C2">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D2">
-        <v>14.49689407771803</v>
+        <v>0.02697919601632748</v>
       </c>
       <c r="E2">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F2">
-        <v>0.2295465000788681</v>
+        <v>0.0004271935686119832</v>
       </c>
       <c r="G2">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H2">
-        <v>1.514742589009074</v>
+        <v>0.00281898570847261</v>
       </c>
       <c r="I2">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J2">
-        <v>36.99395581427962</v>
+        <v>0.06884696707129478</v>
       </c>
       <c r="K2">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L2">
-        <v>13.36757912882604</v>
+        <v>0.02487750397995114</v>
       </c>
       <c r="M2">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N2">
-        <v>28.45676885871217</v>
+        <v>0.05295898113399744</v>
       </c>
       <c r="O2">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P2">
-        <v>0.6036096413621989</v>
+        <v>0.6037938367531516</v>
       </c>
       <c r="Q2">
-        <v>1.656699846184109</v>
+        <v>1.656194447723104</v>
       </c>
       <c r="R2">
-        <v>-144.9132952312066</v>
+        <v>-0.2696884335455252</v>
       </c>
       <c r="S2">
-        <v>-0.3734441366395913</v>
+        <v>-0.0006960829086892772</v>
       </c>
       <c r="T2">
-        <v>-15.14629723326198</v>
+        <v>-0.02818775725882006</v>
       </c>
       <c r="U2">
-        <v>135.81575642596</v>
+        <v>0.2525189237203449</v>
       </c>
       <c r="V2">
-        <v>-350.6701350589283</v>
+        <v>-0.652619581669569</v>
       </c>
       <c r="W2">
-        <v>-106.0049938606098</v>
+        <v>-0.197294486919418</v>
       </c>
     </row>
   </sheetData>
